--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\job-search-agent\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDD55E-E9F3-4DD0-83CE-3010FD13AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F46496-D16E-487F-AFEC-EB01059FDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductor Companies" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>Western Digital</t>
   </si>
   <si>
-    <t>https://jobs.westerndigital.com/</t>
-  </si>
-  <si>
     <t>Silicon Labs</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>https://careers.towersemi.com/career-opportunities/engineering/</t>
+  </si>
+  <si>
+    <t>https://careers.smartrecruiters.com/westerndigital</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -1050,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
@@ -1064,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
@@ -1106,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
@@ -1134,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
@@ -1162,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>6</v>
@@ -1176,7 +1176,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>6</v>
@@ -1190,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
@@ -1274,7 +1274,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>6</v>
@@ -1288,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
@@ -1316,7 +1316,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
@@ -1358,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>6</v>
@@ -1372,7 +1372,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1442,7 +1442,7 @@
         <v>56</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
@@ -1484,7 +1484,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1498,7 +1498,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -1512,7 +1512,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>6</v>
@@ -1540,7 +1540,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>6</v>
@@ -1596,7 +1596,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -1624,7 +1624,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -1680,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>6</v>
@@ -1722,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>6</v>
@@ -1834,7 +1834,7 @@
         <v>104</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>101</v>
@@ -1847,8 +1847,8 @@
       <c r="B64" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>106</v>
+      <c r="C64" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>101</v>
@@ -1859,10 +1859,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>101</v>
@@ -1873,10 +1873,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>101</v>
@@ -1887,10 +1887,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>101</v>
@@ -1901,10 +1901,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>101</v>
@@ -1915,10 +1915,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>101</v>
@@ -1929,10 +1929,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>101</v>
@@ -1943,10 +1943,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>101</v>
@@ -1957,10 +1957,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>101</v>
@@ -1971,10 +1971,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>101</v>
@@ -1985,10 +1985,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>101</v>
@@ -1999,10 +1999,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>101</v>
@@ -2013,10 +2013,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>101</v>
@@ -2027,10 +2027,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>101</v>

--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F46496-D16E-487F-AFEC-EB01059FDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAED2E-ED78-4104-B245-03692560E2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductor Companies" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>https://cadence.wd1.myworkdayjobs.com/External_Careers</t>
   </si>
   <si>
-    <t>https://www.asm.com/open-vacancies</t>
-  </si>
-  <si>
     <t>https://jobs.teradyne.com/search/?createNewAlert=false&amp;q=&amp;optionsFacetsDD_customfield1=&amp;optionsFacetsDD_dept=</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>https://careers.smartrecruiters.com/westerndigital</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/asm</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
@@ -1316,7 +1316,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
@@ -1358,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>6</v>
@@ -1372,7 +1372,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1442,7 +1442,7 @@
         <v>56</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
@@ -1484,7 +1484,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1498,7 +1498,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -1512,7 +1512,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>6</v>
@@ -1540,7 +1540,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>6</v>
@@ -1596,7 +1596,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -1624,7 +1624,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -1680,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>6</v>
@@ -1722,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>6</v>
@@ -1834,7 +1834,7 @@
         <v>104</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>101</v>
@@ -1848,7 +1848,7 @@
         <v>105</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>101</v>
@@ -1890,7 +1890,7 @@
         <v>110</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>101</v>
@@ -1946,7 +1946,7 @@
         <v>117</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>101</v>
@@ -1960,7 +1960,7 @@
         <v>118</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>101</v>
@@ -1974,7 +1974,7 @@
         <v>119</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>101</v>
@@ -2002,7 +2002,7 @@
         <v>122</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>101</v>
@@ -2016,7 +2016,7 @@
         <v>123</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>101</v>
@@ -2030,7 +2030,7 @@
         <v>124</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>101</v>

--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAED2E-ED78-4104-B245-03692560E2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25CAE9-F554-4DF7-AB5A-F9482E24544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Applied Materials</t>
   </si>
   <si>
-    <t>https://www.appliedmaterials.com/us/en/careers.html</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Intel Corporation</t>
   </si>
   <si>
-    <t>https://www.intel.com/content/www/us/en/jobs/life-at-intel.html</t>
-  </si>
-  <si>
     <t>NVIDIA</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Micron Technology</t>
   </si>
   <si>
-    <t>https://www.micron.com/about/careers</t>
-  </si>
-  <si>
     <t>Qualcomm</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>Tower Semiconductor</t>
   </si>
   <si>
-    <t>https://careers.lamresearch.com/careers?start=0&amp;pid=1099551717194&amp;sort_by=timestamp</t>
-  </si>
-  <si>
     <t>https://kla.wd1.myworkdayjobs.com/Search</t>
   </si>
   <si>
@@ -502,6 +490,18 @@
   </si>
   <si>
     <t>https://job-boards.greenhouse.io/asm</t>
+  </si>
+  <si>
+    <t>https://opportunities.lamresearch.com/go/Search/8797500/</t>
+  </si>
+  <si>
+    <t>https://amat.wd1.myworkdayjobs.com/en-US/External/jobs</t>
+  </si>
+  <si>
+    <t>https://intel.wd1.myworkdayjobs.com/en-US/External</t>
+  </si>
+  <si>
+    <t>https://micron.wd1.myworkdayjobs.com/External</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,11 +979,11 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="C2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,13 +1019,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1103,13 +1103,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,13 +1117,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,13 +1131,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,13 +1145,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,13 +1159,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,13 +1173,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,13 +1215,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,13 +1229,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,13 +1243,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,13 +1257,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1271,13 +1271,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,13 +1285,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,13 +1299,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,13 +1313,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,13 +1327,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,13 +1341,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,13 +1355,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,13 +1369,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,13 +1383,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,13 +1411,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,13 +1425,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,13 +1439,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,13 +1453,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,13 +1467,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,13 +1481,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,13 +1495,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,13 +1509,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,13 +1523,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,13 +1537,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,13 +1551,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,13 +1565,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,13 +1579,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,13 +1593,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,13 +1607,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,13 +1621,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,13 +1635,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,13 +1677,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,13 +1691,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,13 +1705,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,13 +1719,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,13 +1747,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,13 +1761,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,13 +1775,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,13 +1789,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,13 +1817,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,13 +1831,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,13 +1845,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,13 +1859,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,13 +1887,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1901,13 +1901,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,13 +1915,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,13 +1929,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,13 +1957,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,13 +1971,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,13 +1985,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,13 +1999,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,13 +2013,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,13 +2027,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25CAE9-F554-4DF7-AB5A-F9482E24544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E670AC-FD6B-4293-A60E-50963CA8876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductor Companies" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -108,15 +108,9 @@
     <t>Wolfspeed</t>
   </si>
   <si>
-    <t>https://www.wolfspeed.com/careers/</t>
-  </si>
-  <si>
     <t>Onsemi</t>
   </si>
   <si>
-    <t>https://www.onsemi.com/careers</t>
-  </si>
-  <si>
     <t>Skyworks Solutions</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>Samsung Semiconductor US</t>
   </si>
   <si>
-    <t>https://semiconductor.samsung.com/about-us/careers/us/job-opportunities/</t>
-  </si>
-  <si>
     <t>★ NEW</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t>https://nvidia.wd5.myworkdayjobs.com/NVIDIAExternalCareerSite</t>
   </si>
   <si>
-    <t>https://careers.tsmc.com/en_US/careers/SearchJobs#</t>
-  </si>
-  <si>
     <t>https://careers.ti.com/en/sites/CX/jobs</t>
   </si>
   <si>
@@ -502,6 +490,39 @@
   </si>
   <si>
     <t>https://micron.wd1.myworkdayjobs.com/External</t>
+  </si>
+  <si>
+    <t>https://hctz.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1001/jobs?mode=location</t>
+  </si>
+  <si>
+    <t>https://cree.wd108.myworkdayjobs.com/EXT</t>
+  </si>
+  <si>
+    <t>https://sec.wd3.myworkdayjobs.com/Samsung_Careers</t>
+  </si>
+  <si>
+    <t>https://ro.careers.tsmc.com/search/?createNewAlert=false&amp;q=&amp;optionsFacetsDD_city=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm </t>
+  </si>
+  <si>
+    <t>https://careers.arm.com/search-jobs</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>https://careers.smartrecruiters.com/Silvaco1</t>
+  </si>
+  <si>
+    <t>Silvaco</t>
+  </si>
+  <si>
+    <t>PDF Solutions</t>
+  </si>
+  <si>
+    <t>https://careers.pdf.com/careers-home/jobs</t>
   </si>
 </sst>
 </file>
@@ -580,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,12 +624,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,6 +672,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -1008,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -1022,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>5</v>
@@ -1036,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
@@ -1050,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
@@ -1064,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -1078,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>5</v>
@@ -1106,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
@@ -1134,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
@@ -1162,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>5</v>
@@ -1176,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -1190,7 +1230,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>5</v>
@@ -1203,8 +1243,8 @@
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
+      <c r="C18" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
@@ -1215,10 +1255,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>5</v>
@@ -1229,10 +1269,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
@@ -1243,10 +1283,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>5</v>
@@ -1257,10 +1297,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
@@ -1271,10 +1311,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>5</v>
@@ -1285,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
@@ -1299,10 +1339,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>5</v>
@@ -1313,10 +1353,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>5</v>
@@ -1327,10 +1367,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>5</v>
@@ -1341,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
@@ -1355,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>5</v>
@@ -1369,10 +1409,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
@@ -1383,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>5</v>
@@ -1397,10 +1437,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
@@ -1411,10 +1451,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>5</v>
@@ -1425,10 +1465,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>5</v>
@@ -1439,10 +1479,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>5</v>
@@ -1453,10 +1493,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -1467,10 +1507,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>5</v>
@@ -1481,10 +1521,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
@@ -1495,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>5</v>
@@ -1509,10 +1549,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>5</v>
@@ -1523,10 +1563,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>5</v>
@@ -1537,10 +1577,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>5</v>
@@ -1551,10 +1591,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>5</v>
@@ -1565,10 +1605,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>5</v>
@@ -1579,10 +1619,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>5</v>
@@ -1593,10 +1633,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>5</v>
@@ -1607,10 +1647,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>5</v>
@@ -1621,10 +1661,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>5</v>
@@ -1635,10 +1675,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>5</v>
@@ -1649,10 +1689,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>5</v>
@@ -1663,10 +1703,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>5</v>
@@ -1677,10 +1717,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>5</v>
@@ -1691,10 +1731,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>5</v>
@@ -1705,10 +1745,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>5</v>
@@ -1719,10 +1759,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>5</v>
@@ -1733,10 +1773,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
@@ -1747,10 +1787,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>5</v>
@@ -1761,10 +1801,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
@@ -1775,10 +1815,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>5</v>
@@ -1789,10 +1829,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
@@ -1803,13 +1843,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,13 +1857,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,13 +1871,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,13 +1885,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1873,13 +1913,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,13 +1927,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1901,13 +1941,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,13 +1955,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,13 +1969,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,13 +1983,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,13 +1997,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,13 +2011,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,13 +2025,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,13 +2039,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,13 +2053,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,13 +2067,49 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2115,6 +2191,9 @@
     <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{3004D3F5-8870-47DF-82B9-1DE1C0356A62}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{99F1D178-DE63-4053-B16A-ED47850D9ADB}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{39CF300D-C6F6-4E63-861B-4456928D141F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3D135E-9DDC-49F8-B6AC-46183ED19547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BC5BF-8FFB-40E3-A045-D8863ECD1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductor Companies" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>Onsemi</t>
   </si>
   <si>
-    <t>https://www.onsemi.com/careers</t>
-  </si>
-  <si>
     <t>Skyworks Solutions</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>https://sec.wd3.myworkdayjobs.com/Samsung_Careers</t>
+  </si>
+  <si>
+    <t>https://hctz.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1001/jobs?mode=location</t>
   </si>
 </sst>
 </file>
@@ -968,8 +968,8 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,8 +1239,8 @@
       <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>41</v>
+      <c r="C19" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
@@ -1251,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>6</v>
@@ -1279,10 +1279,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>6</v>
@@ -1293,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>6</v>
@@ -1307,10 +1307,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>6</v>
@@ -1321,10 +1321,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
@@ -1349,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>6</v>
@@ -1363,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>6</v>
@@ -1377,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>6</v>
@@ -1391,10 +1391,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1405,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>6</v>
@@ -1419,10 +1419,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>6</v>
@@ -1433,10 +1433,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>6</v>
@@ -1447,10 +1447,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>6</v>
@@ -1461,10 +1461,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>6</v>
@@ -1489,10 +1489,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>6</v>
@@ -1503,10 +1503,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1517,10 +1517,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -1531,10 +1531,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>6</v>
@@ -1545,10 +1545,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>6</v>
@@ -1559,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>6</v>
@@ -1573,10 +1573,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>6</v>
@@ -1587,10 +1587,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -1629,10 +1629,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>6</v>
@@ -1643,10 +1643,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -1657,10 +1657,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -1671,10 +1671,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>6</v>
@@ -1685,10 +1685,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -1699,10 +1699,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>6</v>
@@ -1713,10 +1713,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>6</v>
@@ -1727,10 +1727,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>6</v>
@@ -1741,10 +1741,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>6</v>
@@ -1769,10 +1769,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>6</v>
@@ -1783,10 +1783,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>6</v>
@@ -1797,10 +1797,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>6</v>
@@ -1811,10 +1811,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>6</v>
@@ -1825,13 +1825,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="D62" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,13 +1853,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="D63" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,13 +1867,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="D64" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,13 +1881,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="D65" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,13 +1895,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="D66" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,13 +1909,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="D67" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="D68" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="D69" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,13 +1951,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="D70" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,13 +1965,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>145</v>
-      </c>
       <c r="D71" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,13 +1979,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>147</v>
-      </c>
       <c r="D72" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>149</v>
-      </c>
       <c r="D73" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,13 +2007,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="D74" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,13 +2021,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="D75" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,13 +2035,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="D76" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,13 +2049,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,10 +2063,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,10 +2074,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
         <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,10 +2085,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
         <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/Semiconductor_Companies_Careers_Updated.xlsx
+++ b/data/Semiconductor_Companies_Careers_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BC5BF-8FFB-40E3-A045-D8863ECD1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E93FA99-96A8-4DD2-B71E-C4782CE4A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,30 +147,18 @@
     <t>Wolfspeed</t>
   </si>
   <si>
-    <t>https://www.wolfspeed.com/careers/</t>
-  </si>
-  <si>
     <t>Onsemi</t>
   </si>
   <si>
     <t>Skyworks Solutions</t>
   </si>
   <si>
-    <t>https://careers.skyworksinc.com/</t>
-  </si>
-  <si>
     <t>GlobalFoundries</t>
   </si>
   <si>
-    <t>https://gf.com/careers/</t>
-  </si>
-  <si>
     <t>Synopsys</t>
   </si>
   <si>
-    <t>https://careers.synopsys.com/</t>
-  </si>
-  <si>
     <t>Cadence Design Systems</t>
   </si>
   <si>
@@ -198,15 +186,9 @@
     <t>Tokyo Electron (TEL) US</t>
   </si>
   <si>
-    <t>https://www.tel.com/careers/</t>
-  </si>
-  <si>
     <t>Entegris</t>
   </si>
   <si>
-    <t>https://www.entegris.com/careers</t>
-  </si>
-  <si>
     <t>Advantest America</t>
   </si>
   <si>
@@ -222,27 +204,15 @@
     <t>Infineon Technologies</t>
   </si>
   <si>
-    <t>https://www.infineon.com/careers</t>
-  </si>
-  <si>
     <t>Polar Semiconductor</t>
   </si>
   <si>
-    <t>https://polarsemi.com/careers/</t>
-  </si>
-  <si>
     <t>Allegro MicroSystems</t>
   </si>
   <si>
-    <t>https://www.allegromicro.com/en/about-allegro/careers</t>
-  </si>
-  <si>
     <t>FormFactor</t>
   </si>
   <si>
-    <t>https://www.formfactor.com/company/careers/</t>
-  </si>
-  <si>
     <t>Coherent Corp</t>
   </si>
   <si>
@@ -252,15 +222,9 @@
     <t>MKS Instruments</t>
   </si>
   <si>
-    <t>https://www.mksinst.com/careers</t>
-  </si>
-  <si>
     <t>Brooks Automation</t>
   </si>
   <si>
-    <t>https://www.brooks.com/careers/</t>
-  </si>
-  <si>
     <t>Cohu</t>
   </si>
   <si>
@@ -294,9 +258,6 @@
     <t>Axcelis Technologies</t>
   </si>
   <si>
-    <t>https://www.axcelis.com/careers/</t>
-  </si>
-  <si>
     <t>Amkor Technology</t>
   </si>
   <si>
@@ -306,9 +267,6 @@
     <t>Kulicke &amp; Soffa (K&amp;S)</t>
   </si>
   <si>
-    <t>https://www.kns.com/Careers/Careers/Grow-with-K-S</t>
-  </si>
-  <si>
     <t>Veeco Instruments</t>
   </si>
   <si>
@@ -318,9 +276,6 @@
     <t>Onto Innovation</t>
   </si>
   <si>
-    <t>https://www.ontoinnovation.com/careers</t>
-  </si>
-  <si>
     <t>Formic</t>
   </si>
   <si>
@@ -330,21 +285,12 @@
     <t>Tenstorrent</t>
   </si>
   <si>
-    <t>https://tenstorrent.com/en/careers</t>
-  </si>
-  <si>
     <t>Rambus</t>
   </si>
   <si>
-    <t>https://careers.rambus.com/</t>
-  </si>
-  <si>
     <t>Cirrus Logic</t>
   </si>
   <si>
-    <t>https://www.cirrus.com/careers</t>
-  </si>
-  <si>
     <t>Monolithic Power Systems (MPS)</t>
   </si>
   <si>
@@ -390,9 +336,6 @@
     <t>Moog Inc.</t>
   </si>
   <si>
-    <t>https://www.moog.com/careers.html</t>
-  </si>
-  <si>
     <t>Harmonic Drive LLC</t>
   </si>
   <si>
@@ -408,9 +351,6 @@
     <t>Qorvo</t>
   </si>
   <si>
-    <t>https://careers.qorvo.com/</t>
-  </si>
-  <si>
     <t>SK Hynix America</t>
   </si>
   <si>
@@ -426,15 +366,9 @@
     <t>Silicon Labs</t>
   </si>
   <si>
-    <t>https://www.silabs.com/about-us/careers</t>
-  </si>
-  <si>
     <t>SkyWater Technology</t>
   </si>
   <si>
-    <t>https://www.skywatertechnology.com/careers/</t>
-  </si>
-  <si>
     <t>Ampere Computing</t>
   </si>
   <si>
@@ -444,21 +378,12 @@
     <t>Cerebras Systems</t>
   </si>
   <si>
-    <t>https://www.cerebras.ai/open-positions</t>
-  </si>
-  <si>
     <t>MACOM Technology</t>
   </si>
   <si>
-    <t>https://www.macom.com/about-macom/careers</t>
-  </si>
-  <si>
     <t>Lumentum</t>
   </si>
   <si>
-    <t>https://www.lumentum.com/en/careers</t>
-  </si>
-  <si>
     <t>Vishay Intertechnology</t>
   </si>
   <si>
@@ -523,6 +448,81 @@
   </si>
   <si>
     <t>https://hctz.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1001/jobs?mode=location</t>
+  </si>
+  <si>
+    <t>https://cree.wd108.myworkdayjobs.com/EXT</t>
+  </si>
+  <si>
+    <t>https://careers.skyworksinc.com/go/Information-Technology-Careers-At-Skyworks/2248300/</t>
+  </si>
+  <si>
+    <t>https://globalfoundries.wd1.myworkdayjobs.com/External</t>
+  </si>
+  <si>
+    <t>https://careers.synopsys.com/search-jobs</t>
+  </si>
+  <si>
+    <t>https://tel.wd3.myworkdayjobs.com/en-US/TEL-Careers</t>
+  </si>
+  <si>
+    <t>https://entegris.wd1.myworkdayjobs.com/EntegrisCareers</t>
+  </si>
+  <si>
+    <t>https://jobs.infineon.com/careers/</t>
+  </si>
+  <si>
+    <t>https://polarsemi.wd501.myworkdayjobs.com/Polar</t>
+  </si>
+  <si>
+    <t>https://allegromicro.wd5.myworkdayjobs.com/AllegroCareers</t>
+  </si>
+  <si>
+    <t>https://formfactor.wd1.myworkdayjobs.com/FFI-Careers</t>
+  </si>
+  <si>
+    <t>https://mksinst.wd1.myworkdayjobs.com/MKSCareersAmericas</t>
+  </si>
+  <si>
+    <t>https://brooksauto.wd1.myworkdayjobs.com/en-US/Brooks_External_Site</t>
+  </si>
+  <si>
+    <t>https://axcelis.wd1.myworkdayjobs.com/axcelis</t>
+  </si>
+  <si>
+    <t>https://etyy.fa.ap2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/jobs</t>
+  </si>
+  <si>
+    <t>https://wd1.myworkdaysite.com/recruiting/onto/ONTO_Careers</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/tenstorrent</t>
+  </si>
+  <si>
+    <t>https://careers-rambus.icims.com/jobs/search</t>
+  </si>
+  <si>
+    <t>https://jobs.eu.lever.co/cirrus</t>
+  </si>
+  <si>
+    <t>https://silabs.wd1.myworkdayjobs.com/SiliconLabsCareers</t>
+  </si>
+  <si>
+    <t>https://jobs.dayforcehcm.com/en-US/skywater/CANDIDATEPORTAL</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/cerebrassystems</t>
+  </si>
+  <si>
+    <t>https://macomtech.csod.com/ux/ats/careersite/4/home?c=macomtech</t>
+  </si>
+  <si>
+    <t>https://lumentum.wd5.myworkdayjobs.com/LITE</t>
+  </si>
+  <si>
+    <t>https://careers.qorvo.com/search/</t>
+  </si>
+  <si>
+    <t>https://moog.wd5.myworkdayjobs.com/MOOG_External_Career_Site</t>
   </si>
 </sst>
 </file>
@@ -968,8 +968,8 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,8 +1225,8 @@
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
+      <c r="C18" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>6</v>
@@ -1237,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
@@ -1251,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>6</v>
@@ -1279,10 +1279,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>6</v>
@@ -1293,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>6</v>
@@ -1307,10 +1307,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>6</v>
@@ -1321,10 +1321,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
@@ -1349,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>6</v>
@@ -1363,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>6</v>
@@ -1377,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>6</v>
@@ -1391,10 +1391,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1405,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>6</v>
@@ -1419,10 +1419,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>6</v>
@@ -1433,10 +1433,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>6</v>
@@ -1447,10 +1447,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>6</v>
@@ -1461,10 +1461,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>6</v>
@@ -1489,10 +1489,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>6</v>
@@ -1503,10 +1503,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1517,10 +1517,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -1531,10 +1531,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>6</v>
@@ -1545,10 +1545,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>6</v>
@@ -1559,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>6</v>
@@ -1573,10 +1573,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>6</v>
@@ -1587,10 +1587,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -1629,10 +1629,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>6</v>
@@ -1643,10 +1643,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -1657,10 +1657,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>6</v>
@@ -1671,10 +1671,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>6</v>
@@ -1685,10 +1685,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>6</v>
@@ -1699,10 +1699,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>6</v>
@@ -1713,10 +1713,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>6</v>
@@ -1727,10 +1727,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>6</v>
@@ -1741,10 +1741,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>6</v>
@@ -1769,10 +1769,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>6</v>
@@ -1783,10 +1783,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>6</v>
@@ -1797,10 +1797,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>6</v>
@@ -1811,10 +1811,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>6</v>
@@ -1825,13 +1825,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,13 +1853,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,13 +1867,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,13 +1881,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>132</v>
+        <v>111</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,13 +1895,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,13 +1909,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,13 +1951,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,13 +1965,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,13 +1979,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,13 +2007,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,13 +2021,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,13 +2035,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,13 +2049,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,10 +2063,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
+        <v>132</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,10 +2074,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,10 +2085,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" t="s">
-        <v>162</v>
+        <v>136</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2170,6 +2170,9 @@
     <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{B1077543-EE7F-4813-B1F7-653E6DFCC5D2}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{0C06CABB-76D2-4514-9931-94F5C7983162}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{F4B52E48-1FA2-496F-9B6C-80C7C617A444}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
